--- a/output/temu_stock_update_1.xlsx
+++ b/output/temu_stock_update_1.xlsx
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B350" t="inlineStr"/>
       <c r="C350" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B355" t="inlineStr"/>
       <c r="C355" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B356" t="inlineStr"/>
       <c r="C356" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B358" t="inlineStr"/>
       <c r="C358" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B359" t="inlineStr"/>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="B373" t="inlineStr"/>
       <c r="C373" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B376" t="inlineStr"/>
       <c r="C376" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B386" t="inlineStr"/>
       <c r="C386" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B391" t="inlineStr"/>
       <c r="C391" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B392" t="inlineStr"/>
       <c r="C392" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B394" t="inlineStr"/>
       <c r="C394" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="B397" t="inlineStr"/>
       <c r="C397" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B400" t="inlineStr"/>
       <c r="C400" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="n">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B407" t="inlineStr"/>
       <c r="C407" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="B409" t="inlineStr"/>
       <c r="C409" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B410" t="inlineStr"/>
       <c r="C410" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B411" t="inlineStr"/>
       <c r="C411" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B412" t="inlineStr"/>
       <c r="C412" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="B415" t="inlineStr"/>
       <c r="C415" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B418" t="inlineStr"/>
       <c r="C418" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B422" t="inlineStr"/>
       <c r="C422" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="B425" t="inlineStr"/>
       <c r="C425" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B426" t="inlineStr"/>
       <c r="C426" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B427" t="inlineStr"/>
       <c r="C427" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B428" t="inlineStr"/>
       <c r="C428" t="n">
-        <v>803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="B430" t="inlineStr"/>
       <c r="C430" t="n">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B431" t="inlineStr"/>
       <c r="C431" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="B433" t="inlineStr"/>
       <c r="C433" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B436" t="inlineStr"/>
       <c r="C436" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="B437" t="inlineStr"/>
       <c r="C437" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="B440" t="inlineStr"/>
       <c r="C440" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B442" t="inlineStr"/>
       <c r="C442" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B443" t="inlineStr"/>
       <c r="C443" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B445" t="inlineStr"/>
       <c r="C445" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B446" t="inlineStr"/>
       <c r="C446" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B448" t="inlineStr"/>
       <c r="C448" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B451" t="inlineStr"/>
       <c r="C451" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B452" t="inlineStr"/>
       <c r="C452" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B454" t="inlineStr"/>
       <c r="C454" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="B455" t="inlineStr"/>
       <c r="C455" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B457" t="inlineStr"/>
       <c r="C457" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B458" t="inlineStr"/>
       <c r="C458" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="B460" t="inlineStr"/>
       <c r="C460" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B466" t="inlineStr"/>
       <c r="C466" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B467" t="inlineStr"/>
       <c r="C467" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B472" t="inlineStr"/>
       <c r="C472" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B479" t="inlineStr"/>
       <c r="C479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B482" t="inlineStr"/>
       <c r="C482" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B483" t="inlineStr"/>
       <c r="C483" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B485" t="inlineStr"/>
       <c r="C485" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B487" t="inlineStr"/>
       <c r="C487" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B488" t="inlineStr"/>
       <c r="C488" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="B490" t="inlineStr"/>
       <c r="C490" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="B493" t="inlineStr"/>
       <c r="C493" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B494" t="inlineStr"/>
       <c r="C494" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="B497" t="inlineStr"/>
       <c r="C497" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B500" t="inlineStr"/>
       <c r="C500" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="B505" t="inlineStr"/>
       <c r="C505" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B506" t="inlineStr"/>
       <c r="C506" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="B508" t="inlineStr"/>
       <c r="C508" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B509" t="inlineStr"/>
       <c r="C509" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B511" t="inlineStr"/>
       <c r="C511" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B512" t="inlineStr"/>
       <c r="C512" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="B513" t="inlineStr"/>
       <c r="C513" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B514" t="inlineStr"/>
       <c r="C514" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B515" t="inlineStr"/>
       <c r="C515" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B517" t="inlineStr"/>
       <c r="C517" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B518" t="inlineStr"/>
       <c r="C518" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B521" t="inlineStr"/>
       <c r="C521" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B524" t="inlineStr"/>
       <c r="C524" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B526" t="inlineStr"/>
       <c r="C526" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B527" t="inlineStr"/>
       <c r="C527" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B529" t="inlineStr"/>
       <c r="C529" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B530" t="inlineStr"/>
       <c r="C530" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B531" t="inlineStr"/>
       <c r="C531" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="B532" t="inlineStr"/>
       <c r="C532" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B533" t="inlineStr"/>
       <c r="C533" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B534" t="inlineStr"/>
       <c r="C534" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B535" t="inlineStr"/>
       <c r="C535" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B536" t="inlineStr"/>
       <c r="C536" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B537" t="inlineStr"/>
       <c r="C537" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B538" t="inlineStr"/>
       <c r="C538" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B539" t="inlineStr"/>
       <c r="C539" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="B540" t="inlineStr"/>
       <c r="C540" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B541" t="inlineStr"/>
       <c r="C541" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B542" t="inlineStr"/>
       <c r="C542" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B543" t="inlineStr"/>
       <c r="C543" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="B544" t="inlineStr"/>
       <c r="C544" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B545" t="inlineStr"/>
       <c r="C545" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B546" t="inlineStr"/>
       <c r="C546" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B547" t="inlineStr"/>
       <c r="C547" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B548" t="inlineStr"/>
       <c r="C548" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="B549" t="inlineStr"/>
       <c r="C549" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B550" t="inlineStr"/>
       <c r="C550" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="B551" t="inlineStr"/>
       <c r="C551" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="B552" t="inlineStr"/>
       <c r="C552" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B553" t="inlineStr"/>
       <c r="C553" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B554" t="inlineStr"/>
       <c r="C554" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B555" t="inlineStr"/>
       <c r="C555" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B556" t="inlineStr"/>
       <c r="C556" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B557" t="inlineStr"/>
       <c r="C557" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B558" t="inlineStr"/>
       <c r="C558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="B559" t="inlineStr"/>
       <c r="C559" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="B560" t="inlineStr"/>
       <c r="C560" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B561" t="inlineStr"/>
       <c r="C561" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="B562" t="inlineStr"/>
       <c r="C562" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="B563" t="inlineStr"/>
       <c r="C563" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="B565" t="inlineStr"/>
       <c r="C565" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B566" t="inlineStr"/>
       <c r="C566" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="B567" t="inlineStr"/>
       <c r="C567" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B568" t="inlineStr"/>
       <c r="C568" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B569" t="inlineStr"/>
       <c r="C569" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B571" t="inlineStr"/>
       <c r="C571" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="B572" t="inlineStr"/>
       <c r="C572" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B573" t="inlineStr"/>
       <c r="C573" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="B574" t="inlineStr"/>
       <c r="C574" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B575" t="inlineStr"/>
       <c r="C575" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="B577" t="inlineStr"/>
       <c r="C577" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B578" t="inlineStr"/>
       <c r="C578" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B579" t="inlineStr"/>
       <c r="C579" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B580" t="inlineStr"/>
       <c r="C580" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B581" t="inlineStr"/>
       <c r="C581" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="B582" t="inlineStr"/>
       <c r="C582" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B583" t="inlineStr"/>
       <c r="C583" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="B584" t="inlineStr"/>
       <c r="C584" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="B585" t="inlineStr"/>
       <c r="C585" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B586" t="inlineStr"/>
       <c r="C586" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B587" t="inlineStr"/>
       <c r="C587" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="B588" t="inlineStr"/>
       <c r="C588" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B589" t="inlineStr"/>
       <c r="C589" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="B590" t="inlineStr"/>
       <c r="C590" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B591" t="inlineStr"/>
       <c r="C591" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B592" t="inlineStr"/>
       <c r="C592" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="B593" t="inlineStr"/>
       <c r="C593" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B594" t="inlineStr"/>
       <c r="C594" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="B595" t="inlineStr"/>
       <c r="C595" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B596" t="inlineStr"/>
       <c r="C596" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="B597" t="inlineStr"/>
       <c r="C597" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="B599" t="inlineStr"/>
       <c r="C599" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B600" t="inlineStr"/>
       <c r="C600" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B601" t="inlineStr"/>
       <c r="C601" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B602" t="inlineStr"/>
       <c r="C602" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B603" t="inlineStr"/>
       <c r="C603" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B604" t="inlineStr"/>
       <c r="C604" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="B605" t="inlineStr"/>
       <c r="C605" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B606" t="inlineStr"/>
       <c r="C606" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="B612" t="inlineStr"/>
       <c r="C612" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B613" t="inlineStr"/>
       <c r="C613" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B614" t="inlineStr"/>
       <c r="C614" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B615" t="inlineStr"/>
       <c r="C615" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="B616" t="inlineStr"/>
       <c r="C616" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B617" t="inlineStr"/>
       <c r="C617" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B618" t="inlineStr"/>
       <c r="C618" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B619" t="inlineStr"/>
       <c r="C619" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="B620" t="inlineStr"/>
       <c r="C620" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B621" t="inlineStr"/>
       <c r="C621" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B622" t="inlineStr"/>
       <c r="C622" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B623" t="inlineStr"/>
       <c r="C623" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="B624" t="inlineStr"/>
       <c r="C624" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B625" t="inlineStr"/>
       <c r="C625" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B626" t="inlineStr"/>
       <c r="C626" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B627" t="inlineStr"/>
       <c r="C627" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B628" t="inlineStr"/>
       <c r="C628" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B629" t="inlineStr"/>
       <c r="C629" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="B630" t="inlineStr"/>
       <c r="C630" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B631" t="inlineStr"/>
       <c r="C631" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B632" t="inlineStr"/>
       <c r="C632" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B633" t="inlineStr"/>
       <c r="C633" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B634" t="inlineStr"/>
       <c r="C634" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B635" t="inlineStr"/>
       <c r="C635" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B636" t="inlineStr"/>
       <c r="C636" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="B637" t="inlineStr"/>
       <c r="C637" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="B638" t="inlineStr"/>
       <c r="C638" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="B639" t="inlineStr"/>
       <c r="C639" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="B640" t="inlineStr"/>
       <c r="C640" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B641" t="inlineStr"/>
       <c r="C641" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="B642" t="inlineStr"/>
       <c r="C642" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B643" t="inlineStr"/>
       <c r="C643" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="B644" t="inlineStr"/>
       <c r="C644" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B646" t="inlineStr"/>
       <c r="C646" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B648" t="inlineStr"/>
       <c r="C648" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="B649" t="inlineStr"/>
       <c r="C649" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B650" t="inlineStr"/>
       <c r="C650" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="B651" t="inlineStr"/>
       <c r="C651" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="B652" t="inlineStr"/>
       <c r="C652" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B653" t="inlineStr"/>
       <c r="C653" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="B654" t="inlineStr"/>
       <c r="C654" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="B655" t="inlineStr"/>
       <c r="C655" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B656" t="inlineStr"/>
       <c r="C656" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="B657" t="inlineStr"/>
       <c r="C657" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="B658" t="inlineStr"/>
       <c r="C658" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B659" t="inlineStr"/>
       <c r="C659" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="B660" t="inlineStr"/>
       <c r="C660" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="B661" t="inlineStr"/>
       <c r="C661" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B662" t="inlineStr"/>
       <c r="C662" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="B663" t="inlineStr"/>
       <c r="C663" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="B664" t="inlineStr"/>
       <c r="C664" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="B665" t="inlineStr"/>
       <c r="C665" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="B666" t="inlineStr"/>
       <c r="C666" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B667" t="inlineStr"/>
       <c r="C667" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B668" t="inlineStr"/>
       <c r="C668" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B669" t="inlineStr"/>
       <c r="C669" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="B670" t="inlineStr"/>
       <c r="C670" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B671" t="inlineStr"/>
       <c r="C671" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="B672" t="inlineStr"/>
       <c r="C672" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="B673" t="inlineStr"/>
       <c r="C673" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B674" t="inlineStr"/>
       <c r="C674" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B675" t="inlineStr"/>
       <c r="C675" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="B676" t="inlineStr"/>
       <c r="C676" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="B677" t="inlineStr"/>
       <c r="C677" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B679" t="inlineStr"/>
       <c r="C679" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="B680" t="inlineStr"/>
       <c r="C680" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="B681" t="inlineStr"/>
       <c r="C681" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="B682" t="inlineStr"/>
       <c r="C682" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B683" t="inlineStr"/>
       <c r="C683" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B684" t="inlineStr"/>
       <c r="C684" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="B685" t="inlineStr"/>
       <c r="C685" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B686" t="inlineStr"/>
       <c r="C686" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="B687" t="inlineStr"/>
       <c r="C687" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="B688" t="inlineStr"/>
       <c r="C688" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="B689" t="inlineStr"/>
       <c r="C689" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="B690" t="inlineStr"/>
       <c r="C690" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="B691" t="inlineStr"/>
       <c r="C691" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="B692" t="inlineStr"/>
       <c r="C692" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B693" t="inlineStr"/>
       <c r="C693" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B694" t="inlineStr"/>
       <c r="C694" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="B695" t="inlineStr"/>
       <c r="C695" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B696" t="inlineStr"/>
       <c r="C696" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="B697" t="inlineStr"/>
       <c r="C697" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B698" t="inlineStr"/>
       <c r="C698" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="B699" t="inlineStr"/>
       <c r="C699" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B700" t="inlineStr"/>
       <c r="C700" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="B701" t="inlineStr"/>
       <c r="C701" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B703" t="inlineStr"/>
       <c r="C703" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="B704" t="inlineStr"/>
       <c r="C704" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="B705" t="inlineStr"/>
       <c r="C705" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B706" t="inlineStr"/>
       <c r="C706" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="B707" t="inlineStr"/>
       <c r="C707" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="B708" t="inlineStr"/>
       <c r="C708" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="B709" t="inlineStr"/>
       <c r="C709" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="B710" t="inlineStr"/>
       <c r="C710" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="B712" t="inlineStr"/>
       <c r="C712" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="B713" t="inlineStr"/>
       <c r="C713" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B715" t="inlineStr"/>
       <c r="C715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="B716" t="inlineStr"/>
       <c r="C716" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B717" t="inlineStr"/>
       <c r="C717" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B718" t="inlineStr"/>
       <c r="C718" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B719" t="inlineStr"/>
       <c r="C719" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="B720" t="inlineStr"/>
       <c r="C720" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="B721" t="inlineStr"/>
       <c r="C721" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="B722" t="inlineStr"/>
       <c r="C722" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B723" t="inlineStr"/>
       <c r="C723" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="B724" t="inlineStr"/>
       <c r="C724" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B725" t="inlineStr"/>
       <c r="C725" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B726" t="inlineStr"/>
       <c r="C726" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B727" t="inlineStr"/>
       <c r="C727" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B728" t="inlineStr"/>
       <c r="C728" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="B729" t="inlineStr"/>
       <c r="C729" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="B730" t="inlineStr"/>
       <c r="C730" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="B731" t="inlineStr"/>
       <c r="C731" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="B732" t="inlineStr"/>
       <c r="C732" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="B733" t="inlineStr"/>
       <c r="C733" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B734" t="inlineStr"/>
       <c r="C734" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="B735" t="inlineStr"/>
       <c r="C735" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="B736" t="inlineStr"/>
       <c r="C736" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="B737" t="inlineStr"/>
       <c r="C737" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="B738" t="inlineStr"/>
       <c r="C738" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="B739" t="inlineStr"/>
       <c r="C739" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="B740" t="inlineStr"/>
       <c r="C740" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B741" t="inlineStr"/>
       <c r="C741" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="B742" t="inlineStr"/>
       <c r="C742" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="B743" t="inlineStr"/>
       <c r="C743" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="B744" t="inlineStr"/>
       <c r="C744" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="B745" t="inlineStr"/>
       <c r="C745" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B746" t="inlineStr"/>
       <c r="C746" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="B747" t="inlineStr"/>
       <c r="C747" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="B748" t="inlineStr"/>
       <c r="C748" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="B749" t="inlineStr"/>
       <c r="C749" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B750" t="inlineStr"/>
       <c r="C750" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="B751" t="inlineStr"/>
       <c r="C751" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="B752" t="inlineStr"/>
       <c r="C752" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B753" t="inlineStr"/>
       <c r="C753" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="B754" t="inlineStr"/>
       <c r="C754" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="B755" t="inlineStr"/>
       <c r="C755" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="B756" t="inlineStr"/>
       <c r="C756" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -9382,7 +9382,7 @@
       </c>
       <c r="B757" t="inlineStr"/>
       <c r="C757" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B758" t="inlineStr"/>
       <c r="C758" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B759" t="inlineStr"/>
       <c r="C759" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="B760" t="inlineStr"/>
       <c r="C760" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B761" t="inlineStr"/>
       <c r="C761" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B763" t="inlineStr"/>
       <c r="C763" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B764" t="inlineStr"/>
       <c r="C764" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="B765" t="inlineStr"/>
       <c r="C765" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="B766" t="inlineStr"/>
       <c r="C766" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B767" t="inlineStr"/>
       <c r="C767" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="B768" t="inlineStr"/>
       <c r="C768" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="B769" t="inlineStr"/>
       <c r="C769" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B770" t="inlineStr"/>
       <c r="C770" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B771" t="inlineStr"/>
       <c r="C771" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="B772" t="inlineStr"/>
       <c r="C772" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B773" t="inlineStr"/>
       <c r="C773" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B774" t="inlineStr"/>
       <c r="C774" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B775" t="inlineStr"/>
       <c r="C775" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B776" t="inlineStr"/>
       <c r="C776" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="B777" t="inlineStr"/>
       <c r="C777" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B778" t="inlineStr"/>
       <c r="C778" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B779" t="inlineStr"/>
       <c r="C779" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="B781" t="inlineStr"/>
       <c r="C781" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B782" t="inlineStr"/>
       <c r="C782" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B784" t="inlineStr"/>
       <c r="C784" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B785" t="inlineStr"/>
       <c r="C785" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B786" t="inlineStr"/>
       <c r="C786" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="B787" t="inlineStr"/>
       <c r="C787" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B788" t="inlineStr"/>
       <c r="C788" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="B789" t="inlineStr"/>
       <c r="C789" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="B790" t="inlineStr"/>
       <c r="C790" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B791" t="inlineStr"/>
       <c r="C791" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="B793" t="inlineStr"/>
       <c r="C793" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B794" t="inlineStr"/>
       <c r="C794" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="B796" t="inlineStr"/>
       <c r="C796" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="B797" t="inlineStr"/>
       <c r="C797" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="B798" t="inlineStr"/>
       <c r="C798" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="B799" t="inlineStr"/>
       <c r="C799" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -9855,7 +9855,7 @@
       </c>
       <c r="B800" t="inlineStr"/>
       <c r="C800" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="B801" t="inlineStr"/>
       <c r="C801" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B802" t="inlineStr"/>
       <c r="C802" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="B803" t="inlineStr"/>
       <c r="C803" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="B804" t="inlineStr"/>
       <c r="C804" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="B805" t="inlineStr"/>
       <c r="C805" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B806" t="inlineStr"/>
       <c r="C806" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="B807" t="inlineStr"/>
       <c r="C807" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B808" t="inlineStr"/>
       <c r="C808" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="B809" t="inlineStr"/>
       <c r="C809" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B810" t="inlineStr"/>
       <c r="C810" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B811" t="inlineStr"/>
       <c r="C811" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="B812" t="inlineStr"/>
       <c r="C812" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="B813" t="inlineStr"/>
       <c r="C813" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="B814" t="inlineStr"/>
       <c r="C814" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B815" t="inlineStr"/>
       <c r="C815" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B816" t="inlineStr"/>
       <c r="C816" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="B817" t="inlineStr"/>
       <c r="C817" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B818" t="inlineStr"/>
       <c r="C818" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B819" t="inlineStr"/>
       <c r="C819" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="B820" t="inlineStr"/>
       <c r="C820" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="B821" t="inlineStr"/>
       <c r="C821" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="B822" t="inlineStr"/>
       <c r="C822" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B823" t="inlineStr"/>
       <c r="C823" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B824" t="inlineStr"/>
       <c r="C824" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="B825" t="inlineStr"/>
       <c r="C825" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="B826" t="inlineStr"/>
       <c r="C826" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B827" t="inlineStr"/>
       <c r="C827" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B828" t="inlineStr"/>
       <c r="C828" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B829" t="inlineStr"/>
       <c r="C829" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="B830" t="inlineStr"/>
       <c r="C830" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="B831" t="inlineStr"/>
       <c r="C831" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="B832" t="inlineStr"/>
       <c r="C832" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="B833" t="inlineStr"/>
       <c r="C833" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="B834" t="inlineStr"/>
       <c r="C834" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B835" t="inlineStr"/>
       <c r="C835" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B836" t="inlineStr"/>
       <c r="C836" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="B837" t="inlineStr"/>
       <c r="C837" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="B838" t="inlineStr"/>
       <c r="C838" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B839" t="inlineStr"/>
       <c r="C839" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="B840" t="inlineStr"/>
       <c r="C840" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="B841" t="inlineStr"/>
       <c r="C841" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="B842" t="inlineStr"/>
       <c r="C842" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="B843" t="inlineStr"/>
       <c r="C843" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="B844" t="inlineStr"/>
       <c r="C844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="B845" t="inlineStr"/>
       <c r="C845" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B846" t="inlineStr"/>
       <c r="C846" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="B847" t="inlineStr"/>
       <c r="C847" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B848" t="inlineStr"/>
       <c r="C848" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B849" t="inlineStr"/>
       <c r="C849" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="B850" t="inlineStr"/>
       <c r="C850" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="B851" t="inlineStr"/>
       <c r="C851" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="B852" t="inlineStr"/>
       <c r="C852" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B853" t="inlineStr"/>
       <c r="C853" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B854" t="inlineStr"/>
       <c r="C854" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="B855" t="inlineStr"/>
       <c r="C855" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="B856" t="inlineStr"/>
       <c r="C856" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="B857" t="inlineStr"/>
       <c r="C857" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="B864" t="inlineStr"/>
       <c r="C864" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="B865" t="inlineStr"/>
       <c r="C865" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B866" t="inlineStr"/>
       <c r="C866" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="B867" t="inlineStr"/>
       <c r="C867" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="B868" t="inlineStr"/>
       <c r="C868" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="B869" t="inlineStr"/>
       <c r="C869" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B870" t="inlineStr"/>
       <c r="C870" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B871" t="inlineStr"/>
       <c r="C871" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="B872" t="inlineStr"/>
       <c r="C872" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B873" t="inlineStr"/>
       <c r="C873" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B874" t="inlineStr"/>
       <c r="C874" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B875" t="inlineStr"/>
       <c r="C875" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="B876" t="inlineStr"/>
       <c r="C876" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="B877" t="inlineStr"/>
       <c r="C877" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B878" t="inlineStr"/>
       <c r="C878" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B879" t="inlineStr"/>
       <c r="C879" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="B880" t="inlineStr"/>
       <c r="C880" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="B881" t="inlineStr"/>
       <c r="C881" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="B882" t="inlineStr"/>
       <c r="C882" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -10768,7 +10768,7 @@
       </c>
       <c r="B883" t="inlineStr"/>
       <c r="C883" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B884" t="inlineStr"/>
       <c r="C884" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="B885" t="inlineStr"/>
       <c r="C885" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B886" t="inlineStr"/>
       <c r="C886" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B887" t="inlineStr"/>
       <c r="C887" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="B888" t="inlineStr"/>
       <c r="C888" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="B889" t="inlineStr"/>
       <c r="C889" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B890" t="inlineStr"/>
       <c r="C890" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="B891" t="inlineStr"/>
       <c r="C891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="B892" t="inlineStr"/>
       <c r="C892" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="B893" t="inlineStr"/>
       <c r="C893" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="B895" t="inlineStr"/>
       <c r="C895" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B896" t="inlineStr"/>
       <c r="C896" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B897" t="inlineStr"/>
       <c r="C897" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B898" t="inlineStr"/>
       <c r="C898" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="B899" t="inlineStr"/>
       <c r="C899" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B900" t="inlineStr"/>
       <c r="C900" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="B901" t="inlineStr"/>
       <c r="C901" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="B902" t="inlineStr"/>
       <c r="C902" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="B903" t="inlineStr"/>
       <c r="C903" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="B904" t="inlineStr"/>
       <c r="C904" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="B905" t="inlineStr"/>
       <c r="C905" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="B906" t="inlineStr"/>
       <c r="C906" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B907" t="inlineStr"/>
       <c r="C907" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="B908" t="inlineStr"/>
       <c r="C908" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="B909" t="inlineStr"/>
       <c r="C909" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="B910" t="inlineStr"/>
       <c r="C910" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B911" t="inlineStr"/>
       <c r="C911" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="B912" t="inlineStr"/>
       <c r="C912" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="B913" t="inlineStr"/>
       <c r="C913" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B914" t="inlineStr"/>
       <c r="C914" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="B915" t="inlineStr"/>
       <c r="C915" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="B916" t="inlineStr"/>
       <c r="C916" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="B917" t="inlineStr"/>
       <c r="C917" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B918" t="inlineStr"/>
       <c r="C918" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B919" t="inlineStr"/>
       <c r="C919" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="B920" t="inlineStr"/>
       <c r="C920" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B921" t="inlineStr"/>
       <c r="C921" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B922" t="inlineStr"/>
       <c r="C922" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B923" t="inlineStr"/>
       <c r="C923" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="B924" t="inlineStr"/>
       <c r="C924" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="B925" t="inlineStr"/>
       <c r="C925" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B926" t="inlineStr"/>
       <c r="C926" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B927" t="inlineStr"/>
       <c r="C927" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="B928" t="inlineStr"/>
       <c r="C928" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="B929" t="inlineStr"/>
       <c r="C929" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B930" t="inlineStr"/>
       <c r="C930" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B931" t="inlineStr"/>
       <c r="C931" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B932" t="inlineStr"/>
       <c r="C932" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B933" t="inlineStr"/>
       <c r="C933" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -11329,7 +11329,7 @@
       </c>
       <c r="B934" t="inlineStr"/>
       <c r="C934" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="B935" t="inlineStr"/>
       <c r="C935" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="B936" t="inlineStr"/>
       <c r="C936" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="B937" t="inlineStr"/>
       <c r="C937" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B938" t="inlineStr"/>
       <c r="C938" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -11384,7 +11384,7 @@
       </c>
       <c r="B939" t="inlineStr"/>
       <c r="C939" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="B940" t="inlineStr"/>
       <c r="C940" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="B941" t="inlineStr"/>
       <c r="C941" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="B942" t="inlineStr"/>
       <c r="C942" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="B943" t="inlineStr"/>
       <c r="C943" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="B944" t="inlineStr"/>
       <c r="C944" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="B945" t="inlineStr"/>
       <c r="C945" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="B946" t="inlineStr"/>
       <c r="C946" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947">
@@ -11472,7 +11472,7 @@
       </c>
       <c r="B947" t="inlineStr"/>
       <c r="C947" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="B948" t="inlineStr"/>
       <c r="C948" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="B949" t="inlineStr"/>
       <c r="C949" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="B950" t="inlineStr"/>
       <c r="C950" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="B951" t="inlineStr"/>
       <c r="C951" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="B952" t="inlineStr"/>
       <c r="C952" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B953" t="inlineStr"/>
       <c r="C953" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="B954" t="inlineStr"/>
       <c r="C954" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B955" t="inlineStr"/>
       <c r="C955" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="B956" t="inlineStr"/>
       <c r="C956" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="B957" t="inlineStr"/>
       <c r="C957" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B958" t="inlineStr"/>
       <c r="C958" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B959" t="inlineStr"/>
       <c r="C959" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="B960" t="inlineStr"/>
       <c r="C960" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="B961" t="inlineStr"/>
       <c r="C961" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="B962" t="inlineStr"/>
       <c r="C962" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B963" t="inlineStr"/>
       <c r="C963" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -11659,7 +11659,7 @@
       </c>
       <c r="B964" t="inlineStr"/>
       <c r="C964" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B965" t="inlineStr"/>
       <c r="C965" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="B966" t="inlineStr"/>
       <c r="C966" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B967" t="inlineStr"/>
       <c r="C967" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="B968" t="inlineStr"/>
       <c r="C968" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="B969" t="inlineStr"/>
       <c r="C969" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="B970" t="inlineStr"/>
       <c r="C970" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B972" t="inlineStr"/>
       <c r="C972" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B973" t="inlineStr"/>
       <c r="C973" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="B974" t="inlineStr"/>
       <c r="C974" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="B975" t="inlineStr"/>
       <c r="C975" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="B976" t="inlineStr"/>
       <c r="C976" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="B977" t="inlineStr"/>
       <c r="C977" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="B978" t="inlineStr"/>
       <c r="C978" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="B979" t="inlineStr"/>
       <c r="C979" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="B980" t="inlineStr"/>
       <c r="C980" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="B981" t="inlineStr"/>
       <c r="C981" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="B982" t="inlineStr"/>
       <c r="C982" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="B983" t="inlineStr"/>
       <c r="C983" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="B987" t="inlineStr"/>
       <c r="C987" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="B988" t="inlineStr"/>
       <c r="C988" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="B989" t="inlineStr"/>
       <c r="C989" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="B990" t="inlineStr"/>
       <c r="C990" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="B991" t="inlineStr"/>
       <c r="C991" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="B992" t="inlineStr"/>
       <c r="C992" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="B993" t="inlineStr"/>
       <c r="C993" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="B994" t="inlineStr"/>
       <c r="C994" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="B995" t="inlineStr"/>
       <c r="C995" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B996" t="inlineStr"/>
       <c r="C996" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="B997" t="inlineStr"/>
       <c r="C997" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="B998" t="inlineStr"/>
       <c r="C998" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B999" t="inlineStr"/>
       <c r="C999" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="B1000" t="inlineStr"/>
       <c r="C1000" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="B1001" t="inlineStr"/>
       <c r="C1001" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
